--- a/competitive programming.xlsx
+++ b/competitive programming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngminpark/Documents/Programming/competitiveprogramming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED364D1-A35B-3A45-8F5E-9AB2DA218A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198CDFAE-2E75-844D-B60F-8FA10F60B0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Problem</t>
   </si>
@@ -218,6 +218,54 @@
   </si>
   <si>
     <t>Instead of considering the maximum dp ending with a certain index, consider the reverse: maximum dp starting with a certain index</t>
+  </si>
+  <si>
+    <t>Bitaro</t>
+  </si>
+  <si>
+    <t>Sqrt decomp</t>
+  </si>
+  <si>
+    <t>Tried to label nodes (light, heavy). Realized the graph is acylic</t>
+  </si>
+  <si>
+    <t>Don't always try to sqrt decomp the nodes, but consider other things that could be sqrt decomp</t>
+  </si>
+  <si>
+    <t>Divide queries into heavy queries and light queries. Use mergesort to ensure O(N + M)</t>
+  </si>
+  <si>
+    <t>USACO 2008 Gold</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>O(N^2) DP or O(NlogN)  slope trick type beat</t>
+  </si>
+  <si>
+    <t>koosaga blog post</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Considering the DP_i, j = (x &lt;= j) min(DP_i-1, x), and seeing the unimodality of the DP_i --&gt; Maintaining the optimal points where the slope changes (only in the negatives)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APIO 2019 </t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>editorial</t>
+  </si>
+  <si>
+    <t>Square root decomposition on queries</t>
+  </si>
+  <si>
+    <t>Square root decomp on queries - O(sqrt(Q)) block</t>
+  </si>
+  <si>
+    <t>Always go for the easy solution in contests (in this case the O(N^2) solution is very straightforward)</t>
   </si>
 </sst>
 </file>
@@ -596,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F88911-E763-A445-BEF2-9A1A8259CEC8}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,7 +911,7 @@
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -874,6 +922,75 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/competitive programming.xlsx
+++ b/competitive programming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngminpark/Documents/Programming/competitiveprogramming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198CDFAE-2E75-844D-B60F-8FA10F60B0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597813B0-0A18-6446-8242-C11FA5DC830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Problem</t>
   </si>
@@ -266,6 +266,135 @@
   </si>
   <si>
     <t>Always go for the easy solution in contests (in this case the O(N^2) solution is very straightforward)</t>
+  </si>
+  <si>
+    <t>USACO 2018 Platinum</t>
+  </si>
+  <si>
+    <t>Open P3 - Disruption</t>
+  </si>
+  <si>
+    <t>Small-to-large</t>
+  </si>
+  <si>
+    <t>Editorial :(</t>
+  </si>
+  <si>
+    <t>Misread the question big time. Read slowly? Read some books?</t>
+  </si>
+  <si>
+    <t>Maintaining a set for each vertex and when merging the sets, erase the element if it has already appeared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atcoder </t>
+  </si>
+  <si>
+    <t>ARC59C</t>
+  </si>
+  <si>
+    <t>DP, Adhoc</t>
+  </si>
+  <si>
+    <t>Read the word DP in the editorial</t>
+  </si>
+  <si>
+    <t>Misread again lmaooo. Slow down I guess</t>
+  </si>
+  <si>
+    <t>Simple DP over the number of children and candies (2D). Expressing DP_{i, j} as a j variable expression helps a lot</t>
+  </si>
+  <si>
+    <t>Baltic OI 2019</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>DP, binary jumping</t>
+  </si>
+  <si>
+    <t>Read editorial</t>
+  </si>
+  <si>
+    <t>The idea to root the tree on the escape vertex. Shift perspectives? Wishful thinking</t>
+  </si>
+  <si>
+    <t>Simple tree DP using binary jumping</t>
+  </si>
+  <si>
+    <t>2016 Code Festival C</t>
+  </si>
+  <si>
+    <t>DP, Adhoc?</t>
+  </si>
+  <si>
+    <t>Read editorial lololol</t>
+  </si>
+  <si>
+    <t>Analyzing when W = 2, generalizing the result using the fact that the relative order can always be satisfied</t>
+  </si>
+  <si>
+    <t>For each column i do a 2D dp on the number of rows removed. Also, the optimization from O(H^3) to O(H^2) per column is needed. To do this, note that we can precalculate the value added when we do the operation for pairs of the form (x, 0), (0, y) and the relationship between (i + 1, j + 1) and (i, j) is easy to spot</t>
+  </si>
+  <si>
+    <t>POI 2011</t>
+  </si>
+  <si>
+    <t>Tree Rotation</t>
+  </si>
+  <si>
+    <t>Small-to-large, Ordered set</t>
+  </si>
+  <si>
+    <t>Realizing two subtrees are independent</t>
+  </si>
+  <si>
+    <t>Do not be afraid of using ordered set if needed</t>
+  </si>
+  <si>
+    <t>Ordered set small to large merging --&gt; O(nlog^2n)</t>
+  </si>
+  <si>
+    <t>IX Samara Regional Intercollegiate Programming contest 2016</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Exchange argument DP, DAG</t>
+  </si>
+  <si>
+    <t>Noticing that the graph has to be a DAG --&gt; considered N = 2 cases and the dp states</t>
+  </si>
+  <si>
+    <t>If the problem is about an optimal ordering of vertices in a DAG, consider the reverse graph (lexicographically minimum/DP problems)</t>
+  </si>
+  <si>
+    <t>Sort by dp_i and do a topsort bfs using a priority_queue</t>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>455E</t>
+  </si>
+  <si>
+    <t>CHT DP Come on</t>
+  </si>
+  <si>
+    <t>Snake Escaping</t>
+  </si>
+  <si>
+    <t>SOS DP, bitmask enumeration</t>
+  </si>
+  <si>
+    <t>Noticing that 2^{L/3} per query is sufficient</t>
+  </si>
+  <si>
+    <t>Submask enumeration only takes 2^{set bits} lmaoooo</t>
+  </si>
+  <si>
+    <t>Supermask, submask sum. For each query use the character that appears the least to ensure 2 ^ {L / 3}, also PIE helps</t>
   </si>
 </sst>
 </file>
@@ -644,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F88911-E763-A445-BEF2-9A1A8259CEC8}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,6 +1122,184 @@
         <v>75</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2900</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/competitive programming.xlsx
+++ b/competitive programming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngminpark/Documents/Programming/competitiveprogramming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597813B0-0A18-6446-8242-C11FA5DC830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B881E-517F-C94C-949E-72B4B7DED515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17020" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
   <si>
     <t>Problem</t>
   </si>
@@ -395,6 +395,57 @@
   </si>
   <si>
     <t>Supermask, submask sum. For each query use the character that appears the least to ensure 2 ^ {L / 3}, also PIE helps</t>
+  </si>
+  <si>
+    <t>COCI 2009/2010</t>
+  </si>
+  <si>
+    <t>Aladin</t>
+  </si>
+  <si>
+    <t>Lazy Segment Tree, Floor sum</t>
+  </si>
+  <si>
+    <t>Noticed that there is maximum O(Q) points that we actually care</t>
+  </si>
+  <si>
+    <t>Cool trick I read: Instead of adding additional elements for the gap between the points of interest, we could do the following: [a_i, a_{i + 1}) (half open intervals) for all i &lt; n</t>
+  </si>
+  <si>
+    <t>Lazy Seg Tree and floor sum yields a O(Qlog^2Q solution)</t>
+  </si>
+  <si>
+    <t>TC SRM 591</t>
+  </si>
+  <si>
+    <t>Pyramid Sequence</t>
+  </si>
+  <si>
+    <t>Euclidean Algorithm, geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just bashed </t>
+  </si>
+  <si>
+    <t>Representing the pairs on the Cartesian plane (vvv important)</t>
+  </si>
+  <si>
+    <t>Convert the sequence as points on the plane, notice the size of squares are related to gcd. Count!!!</t>
+  </si>
+  <si>
+    <t>ABC191F</t>
+  </si>
+  <si>
+    <t>adhoc, gcd</t>
+  </si>
+  <si>
+    <t>Hints clutched</t>
+  </si>
+  <si>
+    <t>Make some observation on the "optimal" ordering of operations to obtain the desired number</t>
+  </si>
+  <si>
+    <t>It is easy to prove that the gcd operations should go before the minimum operations. Then, use a map and store g(k) := the gcd of the number divisible by k</t>
   </si>
 </sst>
 </file>
@@ -773,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F88911-E763-A445-BEF2-9A1A8259CEC8}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,6 +1351,75 @@
         <v>119</v>
       </c>
     </row>
+    <row r="23" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/competitive programming.xlsx
+++ b/competitive programming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngminpark/Documents/Programming/competitiveprogramming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B881E-517F-C94C-949E-72B4B7DED515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B338C-B289-384F-9D58-86D98951E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17020" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="240">
   <si>
     <t>Problem</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Noticing that 2^{L/3} per query is sufficient</t>
   </si>
   <si>
-    <t>Submask enumeration only takes 2^{set bits} lmaoooo</t>
-  </si>
-  <si>
     <t>Supermask, submask sum. For each query use the character that appears the least to ensure 2 ^ {L / 3}, also PIE helps</t>
   </si>
   <si>
@@ -446,6 +443,318 @@
   </si>
   <si>
     <t>It is easy to prove that the gcd operations should go before the minimum operations. Then, use a map and store g(k) := the gcd of the number divisible by k</t>
+  </si>
+  <si>
+    <t>BOJ</t>
+  </si>
+  <si>
+    <t>Centroid Decomposition, prioriy_queue multiset</t>
+  </si>
+  <si>
+    <t>Braindead bit to simulate BIT which was a bad idea</t>
+  </si>
+  <si>
+    <t>Cool trick: Two priority_queues to simulate a multiset. One for the actual set, the other for pending deletion. More general idea could be delaying deletion unless needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centroid decomposition, for each vertex, we store the closest white nodes </t>
+  </si>
+  <si>
+    <t>Mo's Algorithm + SQRT decomposition</t>
+  </si>
+  <si>
+    <t>Moving pointers: O(1), getting answer O(sqrt(N))</t>
+  </si>
+  <si>
+    <t>Sqrt decomposition trick: sometimes using a basic sqrt DS is better than BBSTs as we only need offline queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo's algorithm using prefix sum values. Query [l - 1, r] for convenience. </t>
+  </si>
+  <si>
+    <t>Atcoder/Codeforces</t>
+  </si>
+  <si>
+    <t>ABC238G/1418G</t>
+  </si>
+  <si>
+    <t>Mo's Algorithm or Hashing (Nondeterministic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo's algorithm/Segment tree solution is simple. </t>
+  </si>
+  <si>
+    <t>Cool trick: Polynomial hashing/xor hashing to store the frequency of integers under a certain modulo. Can be useful for prime factorizations (each prime different hash)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashing solution: H_0, H_1, H_2 s.t. H_0 ^ H_1 = H^2. </t>
+  </si>
+  <si>
+    <t>ABC213H</t>
+  </si>
+  <si>
+    <t>CDQ DnC, FFT, DP</t>
+  </si>
+  <si>
+    <t>DP function resembled convolution. Values are cumulative --&gt; CDQ</t>
+  </si>
+  <si>
+    <t>Submask enumeration only takes 2^{set bits} (proof is easy)</t>
+  </si>
+  <si>
+    <t>Queries with two types of query: insertion, query, and query values are cumulative. --&gt; Can be solved using CDQ DnC which allows it to use methods that are used to solve the simple version of insertion first then query. Also, this form of FFT is called "online FFT".</t>
+  </si>
+  <si>
+    <t>DP transition is just convoultion</t>
+  </si>
+  <si>
+    <t>1083E</t>
+  </si>
+  <si>
+    <t>CHT</t>
+  </si>
+  <si>
+    <t>DP function --&gt; CHT type beat</t>
+  </si>
+  <si>
+    <t>EZ CHT</t>
+  </si>
+  <si>
+    <t>1687C</t>
+  </si>
+  <si>
+    <t>Upsolved</t>
+  </si>
+  <si>
+    <t>Adhoc, prefix sum, range update, sets</t>
+  </si>
+  <si>
+    <t>Prefix sum? --&gt; Editorial</t>
+  </si>
+  <si>
+    <t>If there is two objects or more (in this case array a and b), if there is a way to simplify it as if there is only one object, perhaps consider that. The use of bfs was very nice as in order for an edge [l, r] to be used, it has to be visited twice: once from l-1, once from r, so we can effectively merge edges</t>
+  </si>
+  <si>
+    <t>Consider c_i = a_i - b_i and its prefix sum s_i. The final state we want to reach is where s_i = 0 for all I, and with each operation, we can turn all s_i in range [l-1, r] to be s_{l-1} = s_r. Notice that we only want to use this operation on [l, r] s.t. s_{l-1}=s_r=0. Range query using sets (nice name convention lt, rt for left, right iterators respectively) + bfsing on indices in [0, n] solves the problem in O((n+m)logn)</t>
+  </si>
+  <si>
+    <t>1687D</t>
+  </si>
+  <si>
+    <t>Harmonic series, mathematical insight?</t>
+  </si>
+  <si>
+    <t>Got the equation u^2&lt;=x&lt;=u^2+u --&gt; Editorial</t>
+  </si>
+  <si>
+    <t>Identify the number of different values is limited and use that observation to reduce the time complexity</t>
+  </si>
+  <si>
+    <t>If u^2 &lt;= a_i &lt;= u^2+u, and a_{i+1}-a_i &lt;= u, then, f(a_{i+1}) = u</t>
+  </si>
+  <si>
+    <t>ARC68C</t>
+  </si>
+  <si>
+    <t>Harmonic series, little bit of NT</t>
+  </si>
+  <si>
+    <t>Write down simple observations even if it seems too obvious. That way you can actually solve harder problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For an interval of size greater than or equal t d, it always includes a multiple of d, so we could iterate over d from 1 to m, and the only difference in the intervals that auto-includes a multiple of d and d-1 is the intervals of length d that is missing. Also, intervals of length less than d can have at most 1 multiple of d, so we could use a bit or a segment tree to point query all multiples of d. O((mlogm+n)logm)  </t>
+  </si>
+  <si>
+    <t>1710B</t>
+  </si>
+  <si>
+    <t>Adhoc, prefix sum, range min/max</t>
+  </si>
+  <si>
+    <t>Observation: Maximum points are at x_i and we don't have to care about the rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My observation is kind of lacking. Reducing the problem to O(n) objects of peaks is crucial. Doing more div 1s should help. Also, prefix sum/max/min is very important </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain two arrays - coefficient and value arrays. Range add can be simulated as point updates and then later prefix summing the values. Prefix/suffix max </t>
+  </si>
+  <si>
+    <t>1710C</t>
+  </si>
+  <si>
+    <t>Bitmask DP, digit DP</t>
+  </si>
+  <si>
+    <t>Knowing the properties of xor helps</t>
+  </si>
+  <si>
+    <t>dp[pos][xz mask][low mask]</t>
+  </si>
+  <si>
+    <t>If I had time during the contest, I would have solved it. Consider digit DP in some bitwise operation problems. Cool idea from the editorial: Representing a small set of nonnegative integers as a sum of cnt_{i_1, i_2, …, i_k} whose jth bit is on iff the jth bits of a_1, ..., a_k matches i_1, ..., i_k, which makes the problem very straightforward</t>
+  </si>
+  <si>
+    <t>1656F</t>
+  </si>
+  <si>
+    <t>Adhoc, MST, Greedy</t>
+  </si>
+  <si>
+    <t>I had the right idea of separating the variables rip</t>
+  </si>
+  <si>
+    <t>Cool trick: If the equation involves two or more variables, try to separate the variables and make the equation as a product of independent variables or a sum of such. Also, after making an observation, don't immediately change the approach, play with it a bit</t>
+  </si>
+  <si>
+    <t>W_{I,j} = (a_i + t)(a_j + t) - t^2. Sort a, and run a greedy algorithm for different ranges of t</t>
+  </si>
+  <si>
+    <t>BOI 2019</t>
+  </si>
+  <si>
+    <t>Necklace 4</t>
+  </si>
+  <si>
+    <t>KMP</t>
+  </si>
+  <si>
+    <t>Cool trick: Cyclically shifted string can be decomposed into two substrings s.t. when their order is swapped, we obtain the original string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMP </t>
+  </si>
+  <si>
+    <t>1638E</t>
+  </si>
+  <si>
+    <t>RUPQ, adhoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cool trick: Calculating time complexities using the notion of potential. </t>
+  </si>
+  <si>
+    <t>Maintain a set of segments with equal colors and a lazy value to update for colors. Coloring a segment removes O(\delta) and adds maximum two new segments. The number of removal and addition of segments is bounded by O(q)</t>
+  </si>
+  <si>
+    <t>ARC71F</t>
+  </si>
+  <si>
+    <t>DP, adhoc, casework</t>
+  </si>
+  <si>
+    <t>Noticed that if there are two consecutive elements larger than 1, the sequence is determined</t>
+  </si>
+  <si>
+    <t>Write down the dp recurrence equation even if it is from a basic observation</t>
+  </si>
+  <si>
+    <t>Nontrivial sequences of length i := dp_i. It is easy to see that dp_i = dp_{0, … i-3} + dp_{i-1}. A few casework finishes the problem</t>
+  </si>
+  <si>
+    <t>398D</t>
+  </si>
+  <si>
+    <t>SQRT decomposition, graph</t>
+  </si>
+  <si>
+    <t>Errichto's video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain the adjacency list of the graph using an array of sets. Set a threshold B = O(sqr(M)) and if a vertex has a degree less than or equal to B, we bruteforce. Otherwise, we maintain the number of neighboring vertices that are on separately. </t>
+  </si>
+  <si>
+    <t>Don't overthink! Just because we use a set to maintain edges, that doesn't mean that the time complexity becomes O(Qsqrt(M)logM). It is O(Qsqrt(M)+QlogM). Cool trick regarding SQRT decomposition: Heavy-light objects, rebuilding structures, instead of considering the current edges, consider the total edge operation done on the vertex.</t>
+  </si>
+  <si>
+    <t>ABC219G</t>
+  </si>
+  <si>
+    <t>Number of heavy nodes = O(sqrt(M))--&gt; lazy updates? --&gt; Finito</t>
+  </si>
+  <si>
+    <t>Divide vertices into two groups: Heavy/Light. Updating heavy nodes-&gt; set a lazy tag. Updating light nodes-&gt; bruteforce immediately. Retrieving values/intermediate values can be done via checking the neighboring heavy nodes+storing the time of update in the updates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeForces </t>
+  </si>
+  <si>
+    <t>455D</t>
+  </si>
+  <si>
+    <t>SQRT decomposition, array</t>
+  </si>
+  <si>
+    <t>Cool trick: We could simulate a special case of treap/bbst using SQRT decomposition. Insertion and deletion of elements in O(sqrt(n)) and one thing to note is to rebuild the blocks every O(sqrt(n)) as some blocks would have zero elements</t>
+  </si>
+  <si>
+    <t>Divide the array into O(sqrt(n)) blocks. In each block, we maintain a frequency table . Insertion/Deletion can be done in O(sqrt(n)) if the lengths of the blocks don't deviate much from O(sqrt(n)), so we rebuild the DS every O(sqrt(n)) queries.</t>
+  </si>
+  <si>
+    <t>1220E</t>
+  </si>
+  <si>
+    <t>Graph, DP, TwoCC (Overkill), topsort type thingy</t>
+  </si>
+  <si>
+    <t>TwoCC + Tree DP solution was very straightforward</t>
+  </si>
+  <si>
+    <t>Cool trick: Instead of actually computing twoccs, we can notice that if a node is on a cycle, we can visit the node and return to s freely. Knowing this, we can repeatedly remove leaves and calculate the maximum sum on a path to a leaf easily</t>
+  </si>
+  <si>
+    <t>Explained already</t>
+  </si>
+  <si>
+    <t>1220F</t>
+  </si>
+  <si>
+    <t>RURQ, RMQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cool trick: Lazy updates to reduce time complexity. I should consider this more often. Just think about lazy segment trees? </t>
+  </si>
+  <si>
+    <t>Cool trick: For problems related to cyclical permutation of an array, just add the array behind the original array and solve the problem</t>
+  </si>
+  <si>
+    <t>Maximum depth of a node = Maximum numbers of ancestors. An element is an ancestor of a contiguous range of the array--&gt; RURQ. If the element is moved to the back, then we can recalculate the contribution of the element in O(logn)</t>
+  </si>
+  <si>
+    <t>POI 2012</t>
+  </si>
+  <si>
+    <t>Prefixuffix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>koosaga's blog</t>
+  </si>
+  <si>
+    <t>The problem boils down to this: S = ABTBA, what's max(|A| + |B|) ? We can find valid |A| in O(|S|) using KMP. Then we use the zig-zag transformation where we can use Manachers to check if a range is a palindrome in O(1). Then, we know that |B| is the maximum prefix of a suffix T[2i : ] s.t. it is a palindrome. Doing amortized complexity analysis using potential, we can find it in O(n).</t>
+  </si>
+  <si>
+    <t>Cool trick: For some prefix/suffix problem, consider the rearragement of characters in the form of s_1, s_2k, s_2, … s_{k+1}, s_k. Even odd zig-zag. Potential function analysis is very cool.</t>
+  </si>
+  <si>
+    <t>APIO 2014</t>
+  </si>
+  <si>
+    <t>Palindrome</t>
+  </si>
+  <si>
+    <t>String, palindrome</t>
+  </si>
+  <si>
+    <t>Palindromic tree is nice for palindrome problems. I think it also helps understand more complicated suffix structures better (Need an update after studying them)</t>
+  </si>
+  <si>
+    <t>Insert one character by one, update the lazy value of the current maximum suffix palindrome, and then propagate the lazy value by iterating the nodes from the newest to the oldest.</t>
+  </si>
+  <si>
+    <t>Palindrome --&gt; Palindromic tree</t>
   </si>
 </sst>
 </file>
@@ -461,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +789,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -493,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,6 +823,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F88911-E763-A445-BEF2-9A1A8259CEC8}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,8 +1155,8 @@
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1345,56 +1663,56 @@
         <v>117</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1402,22 +1720,523 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13514</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13545</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2900</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2397</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2700</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2700</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/competitive programming.xlsx
+++ b/competitive programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngminpark/Documents/Programming/competitiveprogramming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B338C-B289-384F-9D58-86D98951E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EAE4D-334B-D346-A156-0AE86D53BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="296">
   <si>
     <t>Problem</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Counting the contribution of each subarray. Consider the limits. Think about the combinatorics</t>
   </si>
   <si>
-    <t>Lucas Theroem + contribution</t>
-  </si>
-  <si>
     <t>1673F</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>Read the word DP in the editorial</t>
   </si>
   <si>
-    <t>Misread again lmaooo. Slow down I guess</t>
-  </si>
-  <si>
     <t>Simple DP over the number of children and candies (2D). Expressing DP_{i, j} as a j variable expression helps a lot</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>Queries with two types of query: insertion, query, and query values are cumulative. --&gt; Can be solved using CDQ DnC which allows it to use methods that are used to solve the simple version of insertion first then query. Also, this form of FFT is called "online FFT".</t>
   </si>
   <si>
-    <t>DP transition is just convoultion</t>
-  </si>
-  <si>
     <t>1083E</t>
   </si>
   <si>
@@ -598,6 +589,9 @@
     <t>1656F</t>
   </si>
   <si>
+    <t>Upsolving</t>
+  </si>
+  <si>
     <t>Adhoc, MST, Greedy</t>
   </si>
   <si>
@@ -755,6 +749,180 @@
   </si>
   <si>
     <t>Palindrome --&gt; Palindromic tree</t>
+  </si>
+  <si>
+    <t>1644F</t>
+  </si>
+  <si>
+    <t>Combinatorics, SQRT</t>
+  </si>
+  <si>
+    <t>Got everything except for the Stirling's number recurrence</t>
+  </si>
+  <si>
+    <t>Cool trick: The use of the stirling's numbers</t>
+  </si>
+  <si>
+    <t>DP transition is just convolution</t>
+  </si>
+  <si>
+    <t>Misread again. Slow down I guess</t>
+  </si>
+  <si>
+    <t>Lucas Theorem + contribution</t>
+  </si>
+  <si>
+    <t>ARC122D</t>
+  </si>
+  <si>
+    <t>Game theory, xor, trie</t>
+  </si>
+  <si>
+    <t>I had the right idea of iterating over the highest bit</t>
+  </si>
+  <si>
+    <t>Cool trick: For some bitmask problems, consider splitting the set into two groups, one with the ith bit on, and the other with the ith bit off, and then we merge the set in the end. D&amp;C recursion. Also, new variable idea: L for level. I should've thought about the process of going down if even, calculate if odd</t>
+  </si>
+  <si>
+    <t>Iterate over the ith bit position. If there is an odd number of elements with the ith bit on, then we calculate the minimum xor between the sets. Otherwise, we move down another level twice and combine the answer.</t>
+  </si>
+  <si>
+    <t>DMOJ</t>
+  </si>
+  <si>
+    <t>Knapsack4</t>
+  </si>
+  <si>
+    <t>Randomization, knapsack</t>
+  </si>
+  <si>
+    <t>Straightforward DP results in O((N+M)\sigma W)--&gt; randomization</t>
+  </si>
+  <si>
+    <t>Cool trick: For certain knapsack problems, we could reduce the number of states considered via shuffling the array and assuming that the optimal subset is included within a certain range</t>
+  </si>
+  <si>
+    <t>dp_{i, j} where i is the number of people considered and j is the difference of sum1 and sum2</t>
+  </si>
+  <si>
+    <t>CodeChef</t>
+  </si>
+  <si>
+    <t>SHAIKHGN</t>
+  </si>
+  <si>
+    <t>Matrix, bitset optimization</t>
+  </si>
+  <si>
+    <t>Normal matrix multiplication O(MN^2logK)--&gt;bitset</t>
+  </si>
+  <si>
+    <t>Cool trick: When multiplying a product of matrices with a vector, change it to a repeated multiplications between a vector and a matrix</t>
+  </si>
+  <si>
+    <t>Simple matrix multiplication using bitsets</t>
+  </si>
+  <si>
+    <t>APIO 2013</t>
+  </si>
+  <si>
+    <t>Toll</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>Considered what edges could be on the  MST in the end</t>
+  </si>
+  <si>
+    <t>Advice: Try to reduce the problem as much as possible from the original form. Even if the problem seems unsolvable, with enough observations, it becomes solvable</t>
+  </si>
+  <si>
+    <t>The edges that are not on the initial MST are first discarded as they would never be on the MST. Now, the number of edges that limit the costs of Mr.Greedy's roads are bounded by k, so we could compress the tree into k subcomponents and do a simple O(k^2) DP per bitmask gives the time complexity, O(k^2*2^k + m\alpha(n))</t>
+  </si>
+  <si>
+    <t>BOI 2010</t>
+  </si>
+  <si>
+    <t>Candies</t>
+  </si>
+  <si>
+    <t>Knapsack, bitset</t>
+  </si>
+  <si>
+    <t>Knapsack--&gt;bitset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advice: Write down concrete equations/observations. </t>
+  </si>
+  <si>
+    <t>Solvied</t>
+  </si>
+  <si>
+    <t>First, we can find the optimal value that should be removed via simple bitmask and then to find Q, we do a similar process, but we use both a_i and -a_i.</t>
+  </si>
+  <si>
+    <t>AGC17D</t>
+  </si>
+  <si>
+    <t>Sprague-Grundy, green Hackenbush</t>
+  </si>
+  <si>
+    <t>Game--&gt;hackenbush--&gt;SG</t>
+  </si>
+  <si>
+    <t>Cool trick: When solving a game theory related problems, consider if it can be reduced into a few subgames where we can apply SG theorem</t>
+  </si>
+  <si>
+    <t>Calculate the SG(u) for each subtree by noticing that adding one edge to the root makes the SG(u) increase by 1.</t>
+  </si>
+  <si>
+    <t>COCI 2015</t>
+  </si>
+  <si>
+    <t>UZASTOPNI</t>
+  </si>
+  <si>
+    <t>Bitset, tree dp</t>
+  </si>
+  <si>
+    <t>Knapsack can take a lot of form, and even if it isn't directly knapsack, consider it</t>
+  </si>
+  <si>
+    <t>For each node, we calculate the boolean arrays lo and hi which are calculated in a knapsack fashion using the values from the child nodes. Think of the ranges as blocks for a knapsack</t>
+  </si>
+  <si>
+    <t>1716F</t>
+  </si>
+  <si>
+    <t>Combinatorics, stirling number</t>
+  </si>
+  <si>
+    <t>Sum of F^k? --&gt; Number of ordered k-tuples--&gt; Partitioning? --&gt; Stirling</t>
+  </si>
+  <si>
+    <t>Cool trick: Always consider swapping the summands if the problem seems to be unsolvable. It makes life easier</t>
+  </si>
+  <si>
+    <t>Sum of F^k is essentially the occurrences of all possible k-tuples of indices that have an odd-numbered ball, which can be calculated by iterating over the number of distinct indices that show up in the k-tuples, and we can think of the number of k-tuples with that j indices as an ordered integer partition of 1..k, so S(k, j)*j!. This solves the first subproblem. Now, we have to consider the number of ways of selecting j indices from 1..n, and filling j balls with odd integers, and the rest (m-j) with even integers. The formula we get is similar to binomial theorem, and we can differentiate a few times to derive a nice clean O(k) solution</t>
+  </si>
+  <si>
+    <t>APIO 2012</t>
+  </si>
+  <si>
+    <t>Dispatching</t>
+  </si>
+  <si>
+    <t>Small-to-large, tree</t>
+  </si>
+  <si>
+    <t>Tree DP?--&gt;Storing the minimum costs of ninjas per subtree--&gt;small-to-large</t>
+  </si>
+  <si>
+    <t>Cool trick: Use priority_queues over multisets if possible as red-black trees suck (the c++ implementation at least)</t>
+  </si>
+  <si>
+    <t>We maintain the minimum costs of ninjas that we can afford for each subtree. Then, we can do a small-to-large merging, and whenever the value exceeds the budget, we remove the most expensive ninja. This doesn't degenerate into a O(n^2) solution since whenever we insert an element, we would have to remove at most one ninja to keep the budget below the limit.</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F88911-E763-A445-BEF2-9A1A8259CEC8}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="144" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="143" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1321,10 @@
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="57.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1290,7 +1458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1310,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1318,401 +1486,401 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1">
         <v>2900</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1720,27 +1888,27 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="B26" s="1">
         <v>13514</v>
@@ -1749,21 +1917,21 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1">
         <v>13545</v>
@@ -1772,39 +1940,39 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -1812,22 +1980,22 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1835,22 +2003,22 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="187" x14ac:dyDescent="0.2">
@@ -1858,25 +2026,25 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1">
         <v>2500</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1884,25 +2052,25 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1">
         <v>2900</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="187" x14ac:dyDescent="0.2">
@@ -1910,25 +2078,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1">
         <v>2397</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -1936,22 +2104,22 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -1959,22 +2127,22 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -1982,45 +2150,45 @@
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -2028,22 +2196,22 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -2051,22 +2219,22 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -2074,22 +2242,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -2097,30 +2265,30 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C42" s="1">
         <v>2700</v>
@@ -2129,16 +2297,16 @@
         <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -2146,7 +2314,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C43" s="1">
         <v>2200</v>
@@ -2155,16 +2323,16 @@
         <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -2172,71 +2340,301 @@
         <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C44" s="1">
         <v>2700</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="187" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="D45" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2900</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>238</v>
+      <c r="F47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/competitive programming.xlsx
+++ b/competitive programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngminpark/Documents/Programming/competitiveprogramming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EAE4D-334B-D346-A156-0AE86D53BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68278DF8-124A-434E-9B6B-31C989C1FA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" xr2:uid="{066B7B58-6DE3-F343-B97B-AF0CF6D8B99C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="306">
   <si>
     <t>Problem</t>
   </si>
@@ -923,6 +923,36 @@
   </si>
   <si>
     <t>We maintain the minimum costs of ninjas that we can afford for each subtree. Then, we can do a small-to-large merging, and whenever the value exceeds the budget, we remove the most expensive ninja. This doesn't degenerate into a O(n^2) solution since whenever we insert an element, we would have to remove at most one ninja to keep the budget below the limit.</t>
+  </si>
+  <si>
+    <t>POI 2006</t>
+  </si>
+  <si>
+    <t>Tetris 3D</t>
+  </si>
+  <si>
+    <t>Segment tree, RURQ, Lazy propagation, 2D</t>
+  </si>
+  <si>
+    <t>Straightforward</t>
+  </si>
+  <si>
+    <t>Cool trick: For some lazy segment tree problems, instead of trying to propagate the lazy values to each node, we can simply store them in the node, and when querying, we can access the lazy value.</t>
+  </si>
+  <si>
+    <t>Maintain a 2D segment tree. Each node has a 1D segment tree that stores the maximum value and the lazy value. The lazy value in the 1D segment tree represents the lazy update value(the whole subarray was updated with that value) and the lazy in the 2D segment tree represents the submatrices that are covered.</t>
+  </si>
+  <si>
+    <t>911G</t>
+  </si>
+  <si>
+    <t>Segment tree, merge</t>
+  </si>
+  <si>
+    <t>Cool trick: For the merging of two dynamic segment tree, the amortized complexity is O(tlogN) where the t is the number of operations</t>
+  </si>
+  <si>
+    <t>(from brunomont's blog) All we do is insert and merge.</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F88911-E763-A445-BEF2-9A1A8259CEC8}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="143" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2637,6 +2667,52 @@
         <v>295</v>
       </c>
     </row>
+    <row r="57" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
